--- a/data/trans_orig/Q23-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Dificultad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.81239905842132</v>
+        <v>15.80867298286323</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.13448119234584</v>
+        <v>16.14426668762785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.7634568575303</v>
+        <v>15.72561990974308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.03979059894834</v>
+        <v>17.02040863942698</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.38919799732344</v>
+        <v>17.39817958381618</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.93274486031953</v>
+        <v>16.90712176796873</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.38398430492419</v>
+        <v>16.41945320100389</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.74037627840852</v>
+        <v>16.73040562388525</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.31123505671734</v>
+        <v>16.29454543541603</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.63019905413036</v>
+        <v>16.59146462084408</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.70292183035343</v>
+        <v>16.70725359045026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.29372390604611</v>
+        <v>16.23241340093672</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.54804639632892</v>
+        <v>18.53854522882939</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.49871230998918</v>
+        <v>18.45619275299166</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.72415615913948</v>
+        <v>17.66620704581849</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.21861420769453</v>
+        <v>17.2042992932036</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.31066365085243</v>
+        <v>17.28912714654859</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.78186417778215</v>
+        <v>16.74192989096102</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.18217419074475</v>
+        <v>16.18603549880058</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.04259114210931</v>
+        <v>16.02144476411553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.29073438949989</v>
+        <v>16.27386206650306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.20165514043376</v>
+        <v>17.22236799932848</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.83569551509736</v>
+        <v>16.83876459634102</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.6655904189544</v>
+        <v>17.66471878585041</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.59967425988849</v>
+        <v>16.60664456472633</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.42063097517883</v>
+        <v>16.42624961867641</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.93750464681152</v>
+        <v>16.95708820570604</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.73529070072007</v>
+        <v>16.74031939643269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.48789838447627</v>
+        <v>16.47584040336173</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.93401200966132</v>
+        <v>16.9166835822157</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.05162266537707</v>
+        <v>18.06446557822078</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.48350698931052</v>
+        <v>17.51864191668549</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.77885952755258</v>
+        <v>18.80889078254107</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.05928614059627</v>
+        <v>17.04770340154603</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>16.80059457522028</v>
+        <v>16.79695325521215</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.59973989313576</v>
+        <v>17.58758474916546</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.19058865054827</v>
+        <v>16.1572403330449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.37103034053267</v>
+        <v>16.37700387298667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.54293860210834</v>
+        <v>16.57476331555187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.83872694034195</v>
+        <v>16.81469957026921</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.29466985955617</v>
+        <v>17.28292063350431</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.17992822212588</v>
+        <v>17.18723639688432</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.47226440568793</v>
+        <v>16.46146743149386</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.80548824407417</v>
+        <v>16.82301928992889</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.9490849220292</v>
+        <v>16.90934765030204</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.60978025640567</v>
+        <v>16.60281842083824</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.04357544349867</v>
+        <v>17.03489771278313</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.38852779242006</v>
+        <v>17.41158486843526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.58172295028237</v>
+        <v>17.54739447395287</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.73414806923514</v>
+        <v>18.65110247944565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.20919726478622</v>
+        <v>18.24779748815977</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.85878605422321</v>
+        <v>16.85782125880282</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.49168316641271</v>
+        <v>17.5328178712124</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.56533170701616</v>
+        <v>17.5480621275839</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.00217105889718</v>
+        <v>15.99033205235388</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.36331082196138</v>
+        <v>16.35257343935456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.50050878033862</v>
+        <v>16.53942976992782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.08820062708403</v>
+        <v>17.09444814366521</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.36294027437635</v>
+        <v>17.32281632684318</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.2407806602155</v>
+        <v>17.14871624885419</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.5638233006467</v>
+        <v>16.54060348616515</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.83181121714736</v>
+        <v>16.8472872869185</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.95348966740177</v>
+        <v>16.9559867087853</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.75938717617625</v>
+        <v>16.75603640022924</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.18035844538847</v>
+        <v>17.19101617769796</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.73359886086725</v>
+        <v>17.75518070825808</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.95130637185682</v>
+        <v>18.85286229582169</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>19.13662561249892</v>
+        <v>18.91827755618969</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.78417097854884</v>
+        <v>18.76622794638381</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.4051986266965</v>
+        <v>17.40556665918642</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.66692553082158</v>
+        <v>17.6791369042589</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.89650484968179</v>
+        <v>17.96838501332778</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.19762784361097</v>
+        <v>16.21352790424585</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.31748582556493</v>
+        <v>16.31315952789741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.32522634722774</v>
+        <v>16.32488836616753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.2463612536626</v>
+        <v>17.23636932435138</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.41170195904028</v>
+        <v>17.39385473894811</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.43119441631835</v>
+        <v>17.43718439011063</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.6145713129371</v>
+        <v>16.62434094610514</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.80251738398849</v>
+        <v>16.79138879356536</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.8232710159341</v>
+        <v>16.82315559095289</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.49939391319161</v>
+        <v>16.50727751224818</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.60696502100571</v>
+        <v>16.61677244163875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.66953686583286</v>
+        <v>16.68465822989384</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.82540312941401</v>
+        <v>17.81452389686128</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.94522585993676</v>
+        <v>17.94041963474804</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.9695497199855</v>
+        <v>17.96150882522614</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.8979152747186</v>
+        <v>16.91133064027321</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.09007379159086</v>
+        <v>17.09462936663955</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.12915502745975</v>
+        <v>17.12572207180177</v>
       </c>
     </row>
     <row r="19">
